--- a/Analysis/Distribution of work.xlsx
+++ b/Analysis/Distribution of work.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\fullstack\Project ECommerce\ECommerce_.NetCore_MVC\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD5E04-D942-4211-9A00-F50C158CF8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="16212" windowHeight="5808"/>
+    <workbookView xWindow="3864" yWindow="3372" windowWidth="17172" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,15 +136,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +232,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +284,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,16 +477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -439,7 +496,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>12</v>
       </c>
@@ -447,7 +504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -455,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -463,12 +520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -477,15 +534,15 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -493,12 +550,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -515,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -530,24 +587,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis/Distribution of work.xlsx
+++ b/Analysis/Distribution of work.xlsx
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,9 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +432,7 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -481,7 +489,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -489,7 +497,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -503,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
